--- a/Lab2.3/Lab 1.3 Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab2.3/Lab 1.3 Requirements Linkage Traceability Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ky-Thuat-Phan-Tich-Yeu-Cau\Lab2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47D3DC-E324-4438-9B4D-44B9DC5BC11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BC083-CEBC-4B3F-B836-0312477225F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{C199519D-1617-4427-AF49-F74495C0C6C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="42">
   <si>
     <t>Đăng ký (cho nhân viên)</t>
   </si>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C580D1C-8410-451A-89D3-02153EE734D7}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="54" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,9 +1852,6 @@
       <c r="AG39" t="s">
         <v>40</v>
       </c>
-      <c r="AM39" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="40" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
